--- a/TutoricaE2ETests/Tutorica_E2E_Smoke_TS.xlsx
+++ b/TutoricaE2ETests/Tutorica_E2E_Smoke_TS.xlsx
@@ -160,21 +160,21 @@
 10. На странице появляется сообщение "Запрещено размещать объявления о ВУЗах, прошедших аккредитацию более 15 лет назад", учетная запись не сохраняется</t>
   </si>
   <si>
-    <t>1. Открывается главная страница портала 
-2. Открывается страница "О компании"
-5. На странице появляется надпись "Спасибо! Сообщение отправлено! Мы обязательно свяжемся с вами!", в базе данных добавляется учетная запись о новом отзыве.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Открывается главная страница портала
 2. Открывается форма добавления объявления об университете
 10. Открывается страница "Список УЗ", в списке внизу появляется новая запись </t>
+  </si>
+  <si>
+    <t>1. Открывается главная страница портала 
+2. Открывается страница "О компании"
+5. На странице появляется надпись "Спасибо! Сообщение отправлено! Мы обязательно свяжемся с Вами!", в базе данных добавляется учетная запись о новом отзыве.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -592,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -606,10 +606,10 @@
       <pane xSplit="4" ySplit="1" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -622,11 +622,11 @@
     <col min="11" max="12" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="6" customHeight="1" thickBot="1"/>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="172.5" customHeight="1">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -685,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>13</v>
@@ -698,7 +698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="188.25" customHeight="1">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -719,7 +719,7 @@
         <v>27</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>15</v>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="300" customHeight="1">
       <c r="A9" s="4">
         <v>3</v>
       </c>
